--- a/Result/05-10-24/HKEXstock_05-10-24period60RS90.xlsx
+++ b/Result/05-10-24/HKEXstock_05-10-24period60RS90.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/05-10-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F635E-284F-8442-A4C5-4C456B9BB4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4978739-5143-C448-B48F-E514158F1068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
